--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/10/seed4/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.027099999999989</v>
+        <v>5.954199999999991</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.29149999999997</v>
+        <v>-20.36889999999997</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-23.06280000000002</v>
+        <v>-23.05380000000002</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.17670000000003</v>
+        <v>-22.06320000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
